--- a/output/KAPITALO_13081827000119.xlsx
+++ b/output/KAPITALO_13081827000119.xlsx
@@ -1681,10 +1681,10 @@
         <v>44165</v>
       </c>
       <c r="B118">
-        <v>2.6846322</v>
+        <v>2.670727</v>
       </c>
       <c r="C118">
-        <v>0.03820601956992498</v>
+        <v>0.03428799965376528</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_13081827000119.xlsx
+++ b/output/KAPITALO_13081827000119.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO ZEVA FUNDO DE INVESTIMENTO EM QUOTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1305 +383,954 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40633</v>
       </c>
       <c r="B2">
-        <v>-0.004171900000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40663</v>
       </c>
       <c r="B3">
-        <v>0.004016800000000043</v>
-      </c>
-      <c r="C3">
         <v>0.008223005556882823</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40694</v>
       </c>
       <c r="B4">
-        <v>0.01124060000000005</v>
-      </c>
-      <c r="C4">
         <v>0.007194899527577681</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40724</v>
       </c>
       <c r="B5">
-        <v>0.01516220000000001</v>
-      </c>
-      <c r="C5">
         <v>0.003878008853679393</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40755</v>
       </c>
       <c r="B6">
-        <v>0.003652100000000047</v>
-      </c>
-      <c r="C6">
         <v>-0.01133818812402587</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40786</v>
       </c>
       <c r="B7">
-        <v>0.00142679999999995</v>
-      </c>
-      <c r="C7">
         <v>-0.002217202554550601</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40816</v>
       </c>
       <c r="B8">
-        <v>0.006570299999999918</v>
-      </c>
-      <c r="C8">
         <v>0.005136171710203863</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40847</v>
       </c>
       <c r="B9">
-        <v>0.0331182000000001</v>
-      </c>
-      <c r="C9">
         <v>0.02637461089404303</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40877</v>
       </c>
       <c r="B10">
-        <v>0.04065699999999994</v>
-      </c>
-      <c r="C10">
         <v>0.007297132119054472</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40908</v>
       </c>
       <c r="B11">
-        <v>-0.0001482000000000427</v>
-      </c>
-      <c r="C11">
         <v>-0.03921099843656461</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40939</v>
       </c>
       <c r="B12">
-        <v>0.08694730000000006</v>
-      </c>
-      <c r="C12">
         <v>0.08710840946628307</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40968</v>
       </c>
       <c r="B13">
-        <v>0.1267744</v>
-      </c>
-      <c r="C13">
         <v>0.03664124286430437</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40999</v>
       </c>
       <c r="B14">
-        <v>0.1212272999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.004922990795673043</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41029</v>
       </c>
       <c r="B15">
-        <v>0.1044185</v>
-      </c>
-      <c r="C15">
         <v>-0.01499142948089116</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41060</v>
       </c>
       <c r="B16">
-        <v>0.04508939999999995</v>
-      </c>
-      <c r="C16">
         <v>-0.05371976293406899</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41090</v>
       </c>
       <c r="B17">
-        <v>0.1246898000000001</v>
-      </c>
-      <c r="C17">
         <v>0.07616611554954078</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41121</v>
       </c>
       <c r="B18">
-        <v>0.1195153</v>
-      </c>
-      <c r="C18">
         <v>-0.004600824156136274</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41152</v>
       </c>
       <c r="B19">
-        <v>0.1472142000000001</v>
-      </c>
-      <c r="C19">
         <v>0.02474186819956814</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41182</v>
       </c>
       <c r="B20">
-        <v>0.1949996000000001</v>
-      </c>
-      <c r="C20">
         <v>0.04165342444331666</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41213</v>
       </c>
       <c r="B21">
-        <v>0.2131734999999999</v>
-      </c>
-      <c r="C21">
         <v>0.01520828960946918</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41243</v>
       </c>
       <c r="B22">
-        <v>0.2175651999999999</v>
-      </c>
-      <c r="C22">
         <v>0.003620009833712912</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41274</v>
       </c>
       <c r="B23">
-        <v>0.2502042</v>
-      </c>
-      <c r="C23">
         <v>0.02680677798609898</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41305</v>
       </c>
       <c r="B24">
-        <v>0.3008554999999999</v>
-      </c>
-      <c r="C24">
         <v>0.04051442156409335</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41333</v>
       </c>
       <c r="B25">
-        <v>0.291803</v>
-      </c>
-      <c r="C25">
         <v>-0.006958882058768157</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41364</v>
       </c>
       <c r="B26">
-        <v>0.3340723000000001</v>
-      </c>
-      <c r="C26">
         <v>0.03272116568857641</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41394</v>
       </c>
       <c r="B27">
-        <v>0.3381110000000001</v>
-      </c>
-      <c r="C27">
         <v>0.003027347168515382</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41425</v>
       </c>
       <c r="B28">
-        <v>0.3527292</v>
-      </c>
-      <c r="C28">
         <v>0.01092450476828888</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41455</v>
       </c>
       <c r="B29">
-        <v>0.3151790000000001</v>
-      </c>
-      <c r="C29">
         <v>-0.02775884485971014</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41486</v>
       </c>
       <c r="B30">
-        <v>0.3660881</v>
-      </c>
-      <c r="C30">
         <v>0.0387088753698166</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41517</v>
       </c>
       <c r="B31">
-        <v>0.2926328</v>
-      </c>
-      <c r="C31">
         <v>-0.05377054378850088</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41547</v>
       </c>
       <c r="B32">
-        <v>0.3316136000000001</v>
-      </c>
-      <c r="C32">
         <v>0.03015612786554689</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41578</v>
       </c>
       <c r="B33">
-        <v>0.3416754</v>
-      </c>
-      <c r="C33">
         <v>0.007556095852430333</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41608</v>
       </c>
       <c r="B34">
-        <v>0.3764645</v>
-      </c>
-      <c r="C34">
         <v>0.02592959519120641</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41639</v>
       </c>
       <c r="B35">
-        <v>0.4491307</v>
-      </c>
-      <c r="C35">
         <v>0.05279191726339483</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41670</v>
       </c>
       <c r="B36">
-        <v>0.4656849000000001</v>
-      </c>
-      <c r="C36">
         <v>0.01142353826331899</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41698</v>
       </c>
       <c r="B37">
-        <v>0.5110555000000001</v>
-      </c>
-      <c r="C37">
         <v>0.03095522100282277</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41729</v>
       </c>
       <c r="B38">
-        <v>0.5086698999999999</v>
-      </c>
-      <c r="C38">
         <v>-0.001578763983189346</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41759</v>
       </c>
       <c r="B39">
-        <v>0.5282102</v>
-      </c>
-      <c r="C39">
         <v>0.01295200494157145</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41790</v>
       </c>
       <c r="B40">
-        <v>0.5642001000000001</v>
-      </c>
-      <c r="C40">
         <v>0.02355035976071895</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41820</v>
       </c>
       <c r="B41">
-        <v>0.5924672</v>
-      </c>
-      <c r="C41">
         <v>0.01807128128939506</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41851</v>
       </c>
       <c r="B42">
-        <v>0.6370068</v>
-      </c>
-      <c r="C42">
         <v>0.02796892771166659</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41882</v>
       </c>
       <c r="B43">
-        <v>0.699784</v>
-      </c>
-      <c r="C43">
         <v>0.03834877167278727</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41912</v>
       </c>
       <c r="B44">
-        <v>0.6036447</v>
-      </c>
-      <c r="C44">
         <v>-0.05655971582271624</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41943</v>
       </c>
       <c r="B45">
-        <v>0.5938496</v>
-      </c>
-      <c r="C45">
         <v>-0.006108023803527041</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41973</v>
       </c>
       <c r="B46">
-        <v>0.566927</v>
-      </c>
-      <c r="C46">
         <v>-0.01689155614180915</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42004</v>
       </c>
       <c r="B47">
-        <v>0.569512</v>
-      </c>
-      <c r="C47">
         <v>0.001649725864702134</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42035</v>
       </c>
       <c r="B48">
-        <v>0.6199565</v>
-      </c>
-      <c r="C48">
         <v>0.03214024486592004</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42063</v>
       </c>
       <c r="B49">
-        <v>0.6804813000000001</v>
-      </c>
-      <c r="C49">
         <v>0.03736199089296544</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42094</v>
       </c>
       <c r="B50">
-        <v>0.689327</v>
-      </c>
-      <c r="C50">
         <v>0.005263789605989722</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42124</v>
       </c>
       <c r="B51">
-        <v>0.6654055999999999</v>
-      </c>
-      <c r="C51">
         <v>-0.01416031354497982</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42155</v>
       </c>
       <c r="B52">
-        <v>0.7479074999999999</v>
-      </c>
-      <c r="C52">
         <v>0.04953862290363387</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42185</v>
       </c>
       <c r="B53">
-        <v>0.6881797000000001</v>
-      </c>
-      <c r="C53">
         <v>-0.03417103021756007</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42216</v>
       </c>
       <c r="B54">
-        <v>0.8054992999999999</v>
-      </c>
-      <c r="C54">
         <v>0.06949473447643029</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42247</v>
       </c>
       <c r="B55">
-        <v>0.7366758</v>
-      </c>
-      <c r="C55">
         <v>-0.03811881843432452</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42277</v>
       </c>
       <c r="B56">
-        <v>0.6767647999999999</v>
-      </c>
-      <c r="C56">
         <v>-0.0344975153105721</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42308</v>
       </c>
       <c r="B57">
-        <v>0.6528856999999999</v>
-      </c>
-      <c r="C57">
         <v>-0.01424117443305106</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42338</v>
       </c>
       <c r="B58">
-        <v>0.7981874</v>
-      </c>
-      <c r="C58">
         <v>0.0879078934496198</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42369</v>
       </c>
       <c r="B59">
-        <v>0.8253956</v>
-      </c>
-      <c r="C59">
         <v>0.0151309034864775</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42400</v>
       </c>
       <c r="B60">
-        <v>0.9557768</v>
-      </c>
-      <c r="C60">
         <v>0.07142627055746154</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42429</v>
       </c>
       <c r="B61">
-        <v>0.9352524</v>
-      </c>
-      <c r="C61">
         <v>-0.01049424453751568</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42460</v>
       </c>
       <c r="B62">
-        <v>0.9165574000000001</v>
-      </c>
-      <c r="C62">
         <v>-0.009660238633472207</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42490</v>
       </c>
       <c r="B63">
-        <v>1.0185578</v>
-      </c>
-      <c r="C63">
         <v>0.05322063403892829</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42521</v>
       </c>
       <c r="B64">
-        <v>1.0156972</v>
-      </c>
-      <c r="C64">
         <v>-0.001417150403124401</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42551</v>
       </c>
       <c r="B65">
-        <v>1.0995173</v>
-      </c>
-      <c r="C65">
         <v>0.04158367635773863</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42582</v>
       </c>
       <c r="B66">
-        <v>1.1336042</v>
-      </c>
-      <c r="C66">
         <v>0.01623558900895938</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42613</v>
       </c>
       <c r="B67">
-        <v>1.2163257</v>
-      </c>
-      <c r="C67">
         <v>0.03877078044746995</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42643</v>
       </c>
       <c r="B68">
-        <v>1.2592421</v>
-      </c>
-      <c r="C68">
         <v>0.01936376047978849</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42674</v>
       </c>
       <c r="B69">
-        <v>1.3987046</v>
-      </c>
-      <c r="C69">
         <v>0.06172977212136765</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42704</v>
       </c>
       <c r="B70">
-        <v>1.3920156</v>
-      </c>
-      <c r="C70">
         <v>-0.002788588473962017</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42735</v>
       </c>
       <c r="B71">
-        <v>1.4668847</v>
-      </c>
-      <c r="C71">
         <v>0.03129958684215928</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42766</v>
       </c>
       <c r="B72">
-        <v>1.5937108</v>
-      </c>
-      <c r="C72">
         <v>0.05141144213185167</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42794</v>
       </c>
       <c r="B73">
-        <v>1.6897106</v>
-      </c>
-      <c r="C73">
         <v>0.03701253046407493</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42825</v>
       </c>
       <c r="B74">
-        <v>1.7229794</v>
-      </c>
-      <c r="C74">
         <v>0.01236891433598819</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42855</v>
       </c>
       <c r="B75">
-        <v>1.6877988</v>
-      </c>
-      <c r="C75">
         <v>-0.01291989208585265</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42886</v>
       </c>
       <c r="B76">
-        <v>1.624496</v>
-      </c>
-      <c r="C76">
         <v>-0.02355191169815229</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42916</v>
       </c>
       <c r="B77">
-        <v>1.7004421</v>
-      </c>
-      <c r="C77">
         <v>0.02893740360053898</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42947</v>
       </c>
       <c r="B78">
-        <v>1.8262015</v>
-      </c>
-      <c r="C78">
         <v>0.04656993016069477</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42978</v>
       </c>
       <c r="B79">
-        <v>1.8713915</v>
-      </c>
-      <c r="C79">
         <v>0.01598965961910359</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43008</v>
       </c>
       <c r="B80">
-        <v>1.9880926</v>
-      </c>
-      <c r="C80">
         <v>0.04064269884479343</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43039</v>
       </c>
       <c r="B81">
-        <v>1.9557585</v>
-      </c>
-      <c r="C81">
         <v>-0.01082098325868475</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43069</v>
       </c>
       <c r="B82">
-        <v>1.9445206</v>
-      </c>
-      <c r="C82">
         <v>-0.003802035924112102</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43100</v>
       </c>
       <c r="B83">
-        <v>1.9572359</v>
-      </c>
-      <c r="C83">
         <v>0.004318292084626529</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43131</v>
       </c>
       <c r="B84">
-        <v>2.1113864</v>
-      </c>
-      <c r="C84">
         <v>0.05212654830816854</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43159</v>
       </c>
       <c r="B85">
-        <v>2.2065701</v>
-      </c>
-      <c r="C85">
         <v>0.03059205375455765</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43190</v>
       </c>
       <c r="B86">
-        <v>2.3250791</v>
-      </c>
-      <c r="C86">
         <v>0.03695818157850339</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43220</v>
       </c>
       <c r="B87">
-        <v>2.420269</v>
-      </c>
-      <c r="C87">
         <v>0.02862786031165387</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43251</v>
       </c>
       <c r="B88">
-        <v>2.3204221</v>
-      </c>
-      <c r="C88">
         <v>-0.02919270384873229</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43281</v>
       </c>
       <c r="B89">
-        <v>2.4053259</v>
-      </c>
-      <c r="C89">
         <v>0.02557018277887013</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43312</v>
       </c>
       <c r="B90">
-        <v>2.4607425</v>
-      </c>
-      <c r="C90">
         <v>0.01627350850619025</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43343</v>
       </c>
       <c r="B91">
-        <v>2.4503189</v>
-      </c>
-      <c r="C91">
         <v>-0.003011954804496342</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43373</v>
       </c>
       <c r="B92">
-        <v>2.532595</v>
-      </c>
-      <c r="C92">
         <v>0.02384594073318858</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43404</v>
       </c>
       <c r="B93">
-        <v>2.6505919</v>
-      </c>
-      <c r="C93">
         <v>0.03340232888287487</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43434</v>
       </c>
       <c r="B94">
-        <v>2.5544623</v>
-      </c>
-      <c r="C94">
         <v>-0.02633260650142788</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43465</v>
       </c>
       <c r="B95">
-        <v>2.4837732</v>
-      </c>
-      <c r="C95">
         <v>-0.01988742432294188</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43496</v>
       </c>
       <c r="B96">
-        <v>2.6376839</v>
-      </c>
-      <c r="C96">
         <v>0.04417931109866746</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43524</v>
       </c>
       <c r="B97">
-        <v>2.6653765</v>
-      </c>
-      <c r="C97">
         <v>0.007612701037602587</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43555</v>
       </c>
       <c r="B98">
-        <v>2.6579209</v>
-      </c>
-      <c r="C98">
         <v>-0.002034061166704015</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43585</v>
       </c>
       <c r="B99">
-        <v>2.6524433</v>
-      </c>
-      <c r="C99">
         <v>-0.001497462670666416</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43616</v>
       </c>
       <c r="B100">
-        <v>2.632448</v>
-      </c>
-      <c r="C100">
         <v>-0.005474499768415186</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43646</v>
       </c>
       <c r="B101">
-        <v>2.7783707</v>
-      </c>
-      <c r="C101">
         <v>0.04017199970928687</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43677</v>
       </c>
       <c r="B102">
-        <v>2.7483655</v>
-      </c>
-      <c r="C102">
         <v>-0.007941306553112981</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43708</v>
       </c>
       <c r="B103">
-        <v>2.7554556</v>
-      </c>
-      <c r="C103">
         <v>0.001891517782884433</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43738</v>
       </c>
       <c r="B104">
-        <v>2.8005662</v>
-      </c>
-      <c r="C104">
         <v>0.01201201792932927</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43769</v>
       </c>
       <c r="B105">
-        <v>2.9124168</v>
-      </c>
-      <c r="C105">
         <v>0.02942998335353297</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43799</v>
       </c>
       <c r="B106">
-        <v>2.9067925</v>
-      </c>
-      <c r="C106">
         <v>-0.001437551336554987</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43830</v>
       </c>
       <c r="B107">
-        <v>3.0313972</v>
-      </c>
-      <c r="C107">
         <v>0.03189437370937931</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43861</v>
       </c>
       <c r="B108">
-        <v>2.9473394</v>
-      </c>
-      <c r="C108">
         <v>-0.02085078592603073</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43890</v>
       </c>
       <c r="B109">
-        <v>2.8302515</v>
-      </c>
-      <c r="C109">
         <v>-0.02966248607859767</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43921</v>
       </c>
       <c r="B110">
-        <v>2.4159321</v>
-      </c>
-      <c r="C110">
         <v>-0.1081702859459751</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43951</v>
       </c>
       <c r="B111">
-        <v>2.4858878</v>
-      </c>
-      <c r="C111">
         <v>0.02047924196151318</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43982</v>
       </c>
       <c r="B112">
-        <v>2.5715364</v>
-      </c>
-      <c r="C112">
         <v>0.02457009660494514</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>44012</v>
       </c>
       <c r="B113">
-        <v>2.5616651</v>
-      </c>
-      <c r="C113">
         <v>-0.002763880552918319</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>44043</v>
       </c>
       <c r="B114">
-        <v>2.6644969</v>
-      </c>
-      <c r="C114">
         <v>0.02887183300866791</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>44074</v>
       </c>
       <c r="B115">
-        <v>2.6964139</v>
-      </c>
-      <c r="C115">
         <v>0.008709790421708385</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>44104</v>
       </c>
       <c r="B116">
-        <v>2.5781968</v>
-      </c>
-      <c r="C116">
         <v>-0.0319815646186159</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>44135</v>
       </c>
       <c r="B117">
-        <v>2.5490376</v>
-      </c>
-      <c r="C117">
         <v>-0.008149132546314997</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>44165</v>
       </c>
       <c r="B118">
-        <v>2.670727</v>
-      </c>
-      <c r="C118">
-        <v>0.03428799965376528</v>
+        <v>0.02410380211243734</v>
       </c>
     </row>
   </sheetData>
